--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,118 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E8" s="3">
         <v>147300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>146300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>141600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>169200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>131200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>122800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>118900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>144900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>107800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>98500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,49 +1010,55 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>-6000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-5200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-5100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-4800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-3600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-3000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E17" s="3">
         <v>43400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E18" s="3">
         <v>103900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>97600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>110200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>87700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>85700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>83200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-45800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-43900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-55700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-36400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-32700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E21" s="3">
         <v>64200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>59200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>52300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>53300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>79900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>58500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>56600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E23" s="3">
         <v>58200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>56700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>55300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>50500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E24" s="3">
         <v>16900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E26" s="3">
         <v>41300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>40800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>38800</v>
       </c>
       <c r="H26" s="3">
         <v>38800</v>
       </c>
       <c r="I26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="J26" s="3">
         <v>36800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E27" s="3">
         <v>41200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>40700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>38700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>38800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1536,26 +1597,29 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-8000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E32" s="3">
         <v>45800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>43900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>55700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>36400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>32700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E33" s="3">
         <v>41200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>40700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>38700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>38800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E35" s="3">
         <v>41200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>40700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>38700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>38800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,90 +1966,97 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>854200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1026200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>702300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>857300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>763200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>256400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>533900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>622800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1490700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>618000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>624200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>628200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E42" s="3">
         <v>190100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>309200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>165100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>146900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>69800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>67300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>63300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>71000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>86900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2178,79 +2286,85 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>33200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>28500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E49" s="3">
         <v>141800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>143800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>144700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>146400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>91000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>78400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>78500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2348,32 +2468,35 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>18100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12159900</v>
+      </c>
+      <c r="E54" s="3">
         <v>12269300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11770900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11220200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10875600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9810100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9791500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9539500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9982300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8916000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8581600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8501700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>484800</v>
+      </c>
+      <c r="E57" s="3">
         <v>468300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>476000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>338200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>321100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>78100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>82100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>71700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2611,8 +2748,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,25 +2792,28 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E61" s="3">
         <v>62200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>133700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>168900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>214500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>54600</v>
       </c>
       <c r="I61" s="3">
         <v>54600</v>
@@ -2679,7 +2822,7 @@
         <v>54600</v>
       </c>
       <c r="K61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="L61" s="3">
         <v>54500</v>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10975500</v>
+      </c>
+      <c r="E66" s="3">
         <v>11108500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10654600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10147200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9836100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8815700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8791300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8579000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9060700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8042300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7714900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7667400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>964100</v>
+      </c>
+      <c r="E72" s="3">
         <v>908100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>866900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>826200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>785600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>746900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>708100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>671300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>634300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>583100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>551600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>519200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1179400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1155700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1111200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1068000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1034400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>989300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>995200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>955500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>916600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>868600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>861600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>829200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E81" s="3">
         <v>41200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>40700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>38700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>38800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E89" s="3">
         <v>107200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>77800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>72000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>52500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-208500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-375800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-403400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-267900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-325700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-343500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-422300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-166900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-345800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-91200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-222400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E100" s="3">
         <v>592400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>226900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>284100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>490400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>211100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-495400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>988300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>317900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-235900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="E102" s="3">
         <v>323900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-155000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>94000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>506800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-277400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-88900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-868200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>873000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-435200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E8" s="3">
         <v>185100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>146300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>141600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>169200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>131200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>118900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>144900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>107800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>98500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1033,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-6200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-6000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-5200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-5100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-4800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-3600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-3000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-1800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E17" s="3">
         <v>58300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E18" s="3">
         <v>126800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>97600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>110200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>87700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>85700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>83200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>79500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-46900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-43900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-55700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-36400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-32700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-21900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-23700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-22400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E21" s="3">
         <v>86100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>64200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>60400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>59200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>53300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>79900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>58500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>56600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E23" s="3">
         <v>79900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>56700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>55300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>54500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E24" s="3">
         <v>23800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E26" s="3">
         <v>56100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>38800</v>
       </c>
       <c r="I26" s="3">
         <v>38800</v>
       </c>
       <c r="J26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K26" s="3">
         <v>36800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E27" s="3">
         <v>56000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>40600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>38700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>32300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,26 +1661,29 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E32" s="3">
         <v>46900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>43900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>55700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>36400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>32700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>21900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>23700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>22400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E33" s="3">
         <v>56000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>38700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>32300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E35" s="3">
         <v>56000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>38700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>32300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2053,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1950500</v>
+      </c>
+      <c r="E41" s="3">
         <v>854200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1026200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>702300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>857300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>763200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>256400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>533900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>622800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1490700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>618000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>624200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>628200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E42" s="3">
         <v>78600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>190100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>309200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>165100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>146900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>69800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>67300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>63300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>71000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>86900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2380,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>30600</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2289,82 +2397,88 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>33200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>28500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E49" s="3">
         <v>137900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>141800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>143800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>144700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>146400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>91000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>78400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>78500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2471,32 +2591,35 @@
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>18100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13851900</v>
+      </c>
+      <c r="E54" s="3">
         <v>12159900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12269300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11770900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11220200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10875600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9810100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9791500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9539500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9982300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8916000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8581600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8501700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>550100</v>
+      </c>
+      <c r="E57" s="3">
         <v>484800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>468300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>476000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>338200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>321100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>78100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>79100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>82100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>74400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>71700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,28 +2935,31 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E61" s="3">
         <v>76300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>62200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>133700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>168900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>214500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>54600</v>
       </c>
       <c r="J61" s="3">
         <v>54600</v>
@@ -2825,7 +2968,7 @@
         <v>54600</v>
       </c>
       <c r="L61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="M61" s="3">
         <v>54500</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12621100</v>
+      </c>
+      <c r="E66" s="3">
         <v>10975500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11108500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10654600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10147200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9836100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8815700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8791300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8579000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9060700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8042300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7714900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7667400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="E72" s="3">
         <v>964100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>908100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>866900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>826200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>785600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>746900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>708100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>671300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>634300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>583100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>551600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>519200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1225800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1179400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1155700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1111200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1068000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1034400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>989300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>995200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>955500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>916600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>868600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>861600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>829200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E81" s="3">
         <v>56000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>38700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>32300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E89" s="3">
         <v>93300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>107200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>77800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>72000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>52500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-360800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-208500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-375800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-403400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-267900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-325700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-343500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-422300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-166900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-345800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-91200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-222400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-56800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>592400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>226900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>284100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>490400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>211100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-495400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>988300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>317900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-235900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1096300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-172000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>323900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-155000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>94000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>506800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-277400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-88900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-868200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>873000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-435200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E8" s="3">
         <v>144100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>185100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>146300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>141600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>169200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>131200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>118900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>144900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>107800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>103500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>98500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1056,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>-7000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-6200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-6000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-5200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-5100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-4800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-3600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-1700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E17" s="3">
         <v>25100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>58300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E18" s="3">
         <v>119000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>126800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>97600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>110200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>87700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>83200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>79500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-51100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-46900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-43900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-55700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-32700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-21900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E21" s="3">
         <v>74900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>86100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>59200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>53300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>79900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>58500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>56600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E23" s="3">
         <v>67900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>79900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>56700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>54500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>56500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>54900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E24" s="3">
         <v>22600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>45300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>38800</v>
       </c>
       <c r="J26" s="3">
         <v>38800</v>
       </c>
       <c r="K26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="L26" s="3">
         <v>36800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E27" s="3">
         <v>45200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>56000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>40700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>40600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,26 +1725,29 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-8000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E32" s="3">
         <v>51100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>46900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>43900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>55700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>32700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>21900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>22400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E33" s="3">
         <v>45200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>56000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E35" s="3">
         <v>45200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>56000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2140,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1950500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>854200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1026200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>702300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>857300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>763200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>256400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>533900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>622800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1490700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>618000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>624200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>628200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E42" s="3">
         <v>243100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>78600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>190100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>309200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>165100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>146900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>69800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>67300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>63300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>71000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>86900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>30600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>33200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>28500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E49" s="3">
         <v>136100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>137900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>141800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>143800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>144700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>146400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>91000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>78400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>78500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2594,32 +2714,35 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>18100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>34300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13382200</v>
+      </c>
+      <c r="E54" s="3">
         <v>13851900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12159900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12269300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11770900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11220200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10875600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9810100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9791500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9539500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9982300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8916000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8581600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8501700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>577300</v>
+      </c>
+      <c r="E57" s="3">
         <v>550100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>484800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>468300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>476000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>338200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>321100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>78100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>82100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>74400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>71700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,31 +3078,34 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>453800</v>
+      </c>
+      <c r="E61" s="3">
         <v>235800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>76300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>62200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>133700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>168900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>214500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>54600</v>
       </c>
       <c r="K61" s="3">
         <v>54600</v>
@@ -2971,7 +3114,7 @@
         <v>54600</v>
       </c>
       <c r="M61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="N61" s="3">
         <v>54500</v>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12145300</v>
+      </c>
+      <c r="E66" s="3">
         <v>12621100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10975500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11108500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10654600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10147200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9836100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8815700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8791300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8579000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9060700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8042300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7714900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7667400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1025200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1009300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>964100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>908100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>866900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>826200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>785600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>746900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>708100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>671300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>634300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>583100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>551600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>519200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1231900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1225800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1179400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1155700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1111200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1068000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1034400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>989300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>995200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>955500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>916600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>868600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>861600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>829200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E81" s="3">
         <v>45200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>56000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E89" s="3">
         <v>62200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>107200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>77800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>49300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>52500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-316100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-360800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-208500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-375800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-403400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-267900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-325700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-343500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-422300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-166900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-345800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-91200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-222400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-578500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1395000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-56800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>592400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>226900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>284100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>490400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>211100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-495400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>988300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>317900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>26700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-235900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-828400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1096300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-172000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>323900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-155000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>94000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>506800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-277400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-88900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-868200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>873000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-435200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,138 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E8" s="3">
         <v>149900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>144100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>185100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>146300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>141600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>169200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>118900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>103500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>98500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E15" s="3">
         <v>-6200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-7000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-6200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-6000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-5200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-5100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-4800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-3000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-1900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-1800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E17" s="3">
         <v>34400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>58300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E18" s="3">
         <v>115500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>119000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>126800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>103900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>97600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>110200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>99800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>80200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>79500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>78300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-39700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-51100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-46900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-45800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-43900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-55700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-36400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-32700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-21900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-22400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E21" s="3">
         <v>82000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>86100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>64200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>61900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>59200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>53300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>79900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>58500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>56600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E23" s="3">
         <v>75800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>67900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>79900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>58200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>55300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>54500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>49300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>77900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>56500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>54900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E24" s="3">
         <v>22800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E26" s="3">
         <v>53000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>45300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>40600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>38800</v>
       </c>
       <c r="K26" s="3">
         <v>38800</v>
       </c>
       <c r="L26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="M26" s="3">
         <v>36800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E27" s="3">
         <v>52900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>45200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>56000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>40700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>40600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,26 +1788,29 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-8000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E32" s="3">
         <v>39700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>51100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>46900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>45800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>43900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>55700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>36400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>32700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>21900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>22400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E33" s="3">
         <v>52900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>56000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>40600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E35" s="3">
         <v>52900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>56000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>40600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1443200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1122200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1950500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>854200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1026200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>702300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>857300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>763200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>256400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>533900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>622800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1490700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>618000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>624200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>628200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>338500</v>
+      </c>
+      <c r="E42" s="3">
         <v>284500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>243100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>78600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>190100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>309200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>165100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>146900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>69800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>67300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>63300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>71000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>86900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>30600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>33200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>28500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>22300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E49" s="3">
         <v>134900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>136100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>137900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>141800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>143800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>144700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>146400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>91000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>78400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>78500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>18100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>34300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14393300</v>
+      </c>
+      <c r="E54" s="3">
         <v>13382200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13851900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12159900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12269300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11770900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11220200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10875600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9810100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9791500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9539500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9982300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8916000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8581600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8501700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>679500</v>
+      </c>
+      <c r="E57" s="3">
         <v>577300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>550100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>484800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>468300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>476000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>338200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>321100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>78100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>82100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>74400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>71700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,34 +3220,37 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>418500</v>
+      </c>
+      <c r="E61" s="3">
         <v>453800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>235800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>76300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>62200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>133700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>168900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>214500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>54600</v>
       </c>
       <c r="L61" s="3">
         <v>54600</v>
@@ -3117,7 +3259,7 @@
         <v>54600</v>
       </c>
       <c r="N61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="O61" s="3">
         <v>54500</v>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13105800</v>
+      </c>
+      <c r="E66" s="3">
         <v>12145300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12621100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10975500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11108500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10654600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10147200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9836100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8815700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8791300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8579000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9060700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8042300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7714900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7667400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,13 +3665,16 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>5100</v>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1079800</v>
+      </c>
+      <c r="E72" s="3">
         <v>1025200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1009300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>964100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>908100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>866900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>826200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>785600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>746900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>708100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>671300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>634300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>583100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>551600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>519200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1287500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1231900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1225800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1179400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1155700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1111200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1068000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1034400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>989300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>995200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>955500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>916600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>868600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>861600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>829200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E81" s="3">
         <v>52900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>56000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>40600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>218100</v>
+      </c>
+      <c r="E89" s="3">
         <v>66300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>93300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>107200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>77800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>49300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>53100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>52500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-699200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-316100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-360800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-208500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-375800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-403400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-267900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-325700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-343500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-422300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-166900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-345800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-91200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-222400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>802100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-578500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1395000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-56800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>592400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>226900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>284100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>490400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>211100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-495400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>988300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>317900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>26700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-235900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-828400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1096300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-172000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>323900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-155000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>94000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>506800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-277400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-88900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-868200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>873000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-435200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E8" s="3">
         <v>155400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>149900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>144100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>185100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>146300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>141600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>169200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>131200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>118900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>144900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>107800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>103500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>98500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,52 +1113,55 @@
         <v>-5900</v>
       </c>
       <c r="E15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F15" s="3">
         <v>-6200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-7000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-6200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-6000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-5200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-5100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-4800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-3600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-3000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-2000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-1700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-1800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E17" s="3">
         <v>29300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E18" s="3">
         <v>126100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>115500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>119000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>126800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>103900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>110200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>85700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>83200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>99800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>80200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>78300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-47600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-39700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-51100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-46900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-45800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-43900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-55700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-36400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-32700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-21900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-22400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81900</v>
+      </c>
+      <c r="E21" s="3">
         <v>84400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>82000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>86100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>64200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>61900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>59200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>57300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>53300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>79900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>58500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>56600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E23" s="3">
         <v>78500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>67900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>79900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>56700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>49300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>77900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E24" s="3">
         <v>23700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E26" s="3">
         <v>54800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>45300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>40800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>40600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>38800</v>
       </c>
       <c r="L26" s="3">
         <v>38800</v>
       </c>
       <c r="M26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="N26" s="3">
         <v>36800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E27" s="3">
         <v>54700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>52900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>45200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>56000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>40700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>40600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,26 +1852,29 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E32" s="3">
         <v>47600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>39700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>51100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>46900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>45800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>43900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>55700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>36400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>32700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>21900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>22400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E33" s="3">
         <v>54700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>52900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>56000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>40700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>40600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E35" s="3">
         <v>54700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>52900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>56000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>40700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>40600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1443200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1122200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1950500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>854200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1026200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>702300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>857300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>763200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>256400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>533900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>622800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1490700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>618000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>624200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>628200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>564400</v>
+      </c>
+      <c r="E42" s="3">
         <v>338500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>284500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>243100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>78600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>190100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>309200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>165100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>146900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>69800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>67300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>63300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>71000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>86900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2609,103 +2717,109 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>30600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>33200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>28500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E49" s="3">
         <v>135000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>134900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>136100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>137900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>141800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>143800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>144700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>146400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>91000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>78400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>78500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2836,35 +2956,38 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>18100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>33900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>34300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14827900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14393300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13382200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13851900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12159900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12269300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11770900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11220200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10875600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9810100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9791500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9539500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9982300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8916000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8581600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8501700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>681600</v>
+      </c>
+      <c r="E57" s="3">
         <v>679500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>577300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>550100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>484800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>468300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>476000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>338200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>321100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>78100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>79100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>82100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>74400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>71700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,37 +3363,40 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>365800</v>
+      </c>
+      <c r="E61" s="3">
         <v>418500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>453800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>235800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>76300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>62200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>133700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>168900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>214500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>54600</v>
       </c>
       <c r="M61" s="3">
         <v>54600</v>
@@ -3262,7 +3405,7 @@
         <v>54600</v>
       </c>
       <c r="O61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="P61" s="3">
         <v>54500</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13482200</v>
+      </c>
+      <c r="E66" s="3">
         <v>13105800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12145300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12621100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10975500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11108500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10654600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10147200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9836100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8815700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8791300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8579000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9060700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8042300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7714900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7667400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3677,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>5100</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1133500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1079800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1025200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1009300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>964100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>908100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>866900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>826200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>785600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>746900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>708100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>671300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>634300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>583100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>551600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>519200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1345700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1287500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1231900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1225800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1179400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1155700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1111200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1068000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1034400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>989300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>995200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>955500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>916600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>868600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>861600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>829200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E81" s="3">
         <v>54700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>52900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>56000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>40700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>40600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,52 +4432,55 @@
         <v>5900</v>
       </c>
       <c r="E83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F83" s="3">
         <v>6200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E89" s="3">
         <v>218100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>66300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>93300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>107200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>77800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>49300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>53100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>52500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-110800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-699200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-316100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-360800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-208500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-375800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-403400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-267900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-325700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-343500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-422300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-166900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-345800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-222400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E100" s="3">
         <v>802100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-578500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1395000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-56800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>592400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>226900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>284100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>490400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>211100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-495400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>988300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>317900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>26700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-235900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>321000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-828400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1096300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-172000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>323900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-155000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>94000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>506800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-277400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-88900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-868200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>873000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-435200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,159 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>156900</v>
+      </c>
+      <c r="F8" s="3">
         <v>155700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>155400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>149900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>144100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>185100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>147300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>146300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>141600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>169200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>131200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>122800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>118900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>144900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>107800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>103500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>98500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1144,76 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F15" s="3">
         <v>-5900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>-5900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-7000</v>
       </c>
       <c r="H15" s="3">
         <v>-6200</v>
       </c>
       <c r="I15" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-6000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-5200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-5100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-4800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-3600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-3000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-2900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-1900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-1700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-1800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F17" s="3">
         <v>22700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>29300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>34400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>25100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>58300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>43400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>45700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>44000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>59000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>43500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>37100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>35800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>45100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>27600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>24000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>20200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>140400</v>
+      </c>
+      <c r="F18" s="3">
         <v>133000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>126100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>115500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>119000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>126800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>103900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>100600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>97600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>110200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>87700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>85700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>83200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>99800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>80200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>79500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>78300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1379,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-56900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-47600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-39700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-51100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-46900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-45800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-43900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-42300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-55700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-36400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-32700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-23700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-24700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-22400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F21" s="3">
         <v>81900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>84400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>82000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>74900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>86100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>64200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>61900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>60400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>59200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>57300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>52300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>53300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>79900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>58500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>56600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>57700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F23" s="3">
         <v>76000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>78500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>75800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>67900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>79900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>58200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>56700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>55300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>54500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>53700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>49300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>50500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>77900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>56500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>54900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>55900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F24" s="3">
         <v>22400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>23700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>22800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>22600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>23800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>16900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>26600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>16800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>22500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F26" s="3">
         <v>53600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>54800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>53000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>45300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>56100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>41300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>40800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>38800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>38800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>36800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>38300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>39700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>32400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>32500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F27" s="3">
         <v>53600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>54700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>52900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>45200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>56000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>41200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>40700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>40600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>38700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>38800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>36800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>38200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>39600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>32300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>32500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1933,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1855,26 +1977,32 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-8000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F32" s="3">
         <v>56900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>47600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>39700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>51100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>46900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>45800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>43900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>42300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>55700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>36400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>32700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>21900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>23700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>24700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>22400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F33" s="3">
         <v>53600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>54700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>52900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>45200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>56000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>41200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>40700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>40600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>38700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>38800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>36800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>37000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>31600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>32300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>32500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F35" s="3">
         <v>53600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>54700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>52900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>45200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>56000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>41200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>40700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>40600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>38700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>38800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>36800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>37000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>31600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>32300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>32500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2486,134 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1269400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1037800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1443000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1443200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1122200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1950500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>854200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1026200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>702300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>857300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>763200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>256400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>533900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>622800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1490700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>618000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>624200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>628200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>479600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>641100</v>
+      </c>
+      <c r="F42" s="3">
         <v>564400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>338500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>284500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>243100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>78600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>190100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>309200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>165100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>146900</v>
-      </c>
-      <c r="M42" s="3">
-        <v>17400</v>
-      </c>
-      <c r="N42" s="3">
-        <v>69800</v>
       </c>
       <c r="O42" s="3">
         <v>17400</v>
       </c>
       <c r="P42" s="3">
+        <v>69800</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>17400</v>
+      </c>
+      <c r="R42" s="3">
         <v>67300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>63300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>71000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>86900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2720,106 +2936,118 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>30600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>33200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>28500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>22300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>21500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>19300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>18700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>17800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>16700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>183400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>133900</v>
+      </c>
+      <c r="F49" s="3">
         <v>134800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>135000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>134900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>136100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>137900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>141800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>143800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>144700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>146400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>91000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>78400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>78500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>7200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2959,35 +3199,41 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>18100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>17900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>18000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>27100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>19700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>33900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>34300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14906800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14265600</v>
+      </c>
+      <c r="F54" s="3">
         <v>14827900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14393300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13382200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13851900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12159900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12269300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11770900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11220200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10875600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9810100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9791500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9539500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9982300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8916000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8581600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8501700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3402,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>747800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>745000</v>
+      </c>
+      <c r="F57" s="3">
         <v>681600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>679500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>577300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>550100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>484800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>468300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>476000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>338200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>321100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>78100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>79100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>82100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>74400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>51600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>71700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>53500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3522,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3584,14 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,52 +3646,58 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>255900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>221400</v>
+      </c>
+      <c r="F61" s="3">
         <v>365800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>418500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>453800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>235800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>76300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>62200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>133700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>168900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>214500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>54600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>54600</v>
       </c>
       <c r="O61" s="3">
         <v>54600</v>
       </c>
       <c r="P61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="Q61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="R61" s="3">
         <v>54500</v>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>54500</v>
+      </c>
+      <c r="V61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13448100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12864600</v>
+      </c>
+      <c r="F66" s="3">
         <v>13482200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13105800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12145300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12621100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10975500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11108500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10654600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10147200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9836100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8815700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8791300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8579000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9060700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8042300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7714900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7667400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3848,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>5100</v>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>5100</v>
+      </c>
+      <c r="V70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1247900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1187700</v>
+      </c>
+      <c r="F72" s="3">
         <v>1133500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1079800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1025200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1009300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>964100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>908100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>866900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>826200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>785600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>746900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>708100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>671300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>634300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>583100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>551600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>519200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1458600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1400900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1345700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1287500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1231900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1225800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1179400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1155700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1111200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1068000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1034400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>989300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>995200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>955500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>916600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>868600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>861600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>829200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F81" s="3">
         <v>53600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>54700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>52900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>45200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>56000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>41200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>40700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>40600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>38700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>38800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>36800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>37000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>31600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>32300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>32500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4819,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7000</v>
       </c>
       <c r="H83" s="3">
         <v>6200</v>
       </c>
       <c r="I83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K83" s="3">
         <v>6000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>99900</v>
+      </c>
+      <c r="F89" s="3">
         <v>28300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>218100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>66300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>62200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>93300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>107200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>77800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>11100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>72000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>43500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>49300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>51400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>14000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>53100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>52500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-398900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>259300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-110800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-699200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-316100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-360800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-208500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-375800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-403400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-267900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>5300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-325700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-343500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-422300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-166900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-345800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-91200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-222400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>764000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-764300</v>
+      </c>
+      <c r="F100" s="3">
         <v>82200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>802100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-578500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1395000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-56800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>592400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>226900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>284100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>490400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-23800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>211100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-495400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>988300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>317900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>26700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-235900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>231700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-405200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>321000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-828400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1096300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-172000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>323900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-155000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>94000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>506800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-277400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-88900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-868200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>873000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-13800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-11600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-435200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,165 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E8" s="3">
         <v>158300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>156900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>155700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>155400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>149900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>144100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>185100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>147300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>141600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>169200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>122800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>118900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>144900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>107800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>103500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>98500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,70 +1169,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E15" s="3">
         <v>-5700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-6200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-5900</v>
       </c>
       <c r="G15" s="3">
         <v>-5900</v>
       </c>
       <c r="H15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I15" s="3">
         <v>-6200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-7000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-6200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-6000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-5200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-5100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-4800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-3600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-2000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-1900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-1700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-1800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E17" s="3">
         <v>15700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>58300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>27600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E18" s="3">
         <v>142600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>140400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>133000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>126100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>115500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>126800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>110200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>85700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>83200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>99800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>80200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>79500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>78300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-57700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-65000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-56900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-47600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-51100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-46900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-43900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-42300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-55700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-34000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-36400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-32700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-21900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-23700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-22400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E21" s="3">
         <v>90600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>81900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>82000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>74900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>86100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>64200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>59200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>52300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>53300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>79900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>58500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>56600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>57700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E23" s="3">
         <v>84900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>78500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>75800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>67900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>79900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>54500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>53700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>54900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E24" s="3">
         <v>24700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E26" s="3">
         <v>60200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>54300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>54800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>45300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>40800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>38800</v>
       </c>
       <c r="O26" s="3">
         <v>38800</v>
       </c>
       <c r="P26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>36800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E27" s="3">
         <v>60200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>54300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>54700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>45200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1983,26 +2043,29 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-8000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E32" s="3">
         <v>57700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>65000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>56900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>47600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>51100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>46900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>43900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>42300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>55700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>34000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>36400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>32700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>21900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>23700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>22400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E33" s="3">
         <v>60200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>54300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>54700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>41200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>31600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E35" s="3">
         <v>60200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>54300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>54700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>41200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>31600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1118400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1269400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1037800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1443000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1443200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1122200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1950500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>854200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1026200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>702300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>857300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>763200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>256400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>533900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>622800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1490700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>618000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>624200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>628200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>555800</v>
+      </c>
+      <c r="E42" s="3">
         <v>479600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>641100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>564400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>338500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>284500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>243100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>78600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>190100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>309200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>165100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>146900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>69800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>67300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>63300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>71000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>86900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2942,112 +3049,118 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>30600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>33200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>28500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E49" s="3">
         <v>183400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>133900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>134800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>135000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>134900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>136100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>137900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>141800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>143800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>144700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>146400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>91000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>78400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>78500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3205,35 +3324,38 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>18100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>19700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>33900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>34300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15547900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14906800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14265600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14827900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14393300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13382200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13851900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12159900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12269300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11770900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11220200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10875600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9810100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9791500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9539500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9982300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8916000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8581600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8501700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>758900</v>
+      </c>
+      <c r="E57" s="3">
         <v>747800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>745000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>681600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>679500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>577300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>550100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>484800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>468300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>476000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>338200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>321100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>78100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>79100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>82100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>74400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>71700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>53500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3590,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,46 +3791,49 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E61" s="3">
         <v>255900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>221400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>365800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>418500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>453800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>235800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>76300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>62200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>133700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>168900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>214500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>54600</v>
       </c>
       <c r="P61" s="3">
         <v>54600</v>
@@ -3700,7 +3842,7 @@
         <v>54600</v>
       </c>
       <c r="R61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="S61" s="3">
         <v>54500</v>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14024800</v>
+      </c>
+      <c r="E66" s="3">
         <v>13448100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12864600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13482200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13105800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12145300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12621100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10975500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11108500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10654600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10147200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9836100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8815700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8791300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8579000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9060700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8042300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7714900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7667400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4190,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>5100</v>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1308700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1247900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1187700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1133500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1079800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1025200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1009300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>964100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>908100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>866900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>826200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>785600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>746900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>708100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>671300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>634300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>583100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>551600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>519200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1523200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1458600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1345700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1287500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1231900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1225800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1179400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1155700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1111200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1068000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1034400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>989300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>995200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>955500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>916600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>868600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>861600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>829200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E81" s="3">
         <v>60200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>54300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>54700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>41200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>31600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5900</v>
       </c>
       <c r="G83" s="3">
         <v>5900</v>
       </c>
       <c r="H83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-133400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>99900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>218100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>66300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>62200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>93300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>107200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>77800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>43500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>51400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>53100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>52500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-733700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-398900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>259300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-110800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-699200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-316100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-360800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-208500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-375800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-403400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-267900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-325700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-343500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-422300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-166900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-345800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-91200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-222400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E100" s="3">
         <v>764000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-764300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>82200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>802100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-578500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1395000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-56800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>592400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>226900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>284100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>490400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>211100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-495400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>988300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>317900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>26700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-235900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-151100</v>
+      </c>
+      <c r="E102" s="3">
         <v>231700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-405200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>321000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-828400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1096300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-172000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>323900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-155000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>94000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>506800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-277400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-88900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-868200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>873000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-435200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E8" s="3">
         <v>157100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>158300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>156900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>155700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>155400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>149900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>144100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>185100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>147300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>146300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>141600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>169200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>122800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>118900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>144900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>107800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>103500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>98500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E15" s="3">
         <v>-6800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-5700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-6200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-5900</v>
       </c>
       <c r="H15" s="3">
         <v>-5900</v>
       </c>
       <c r="I15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J15" s="3">
         <v>-6200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-7000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-6200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-6000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-5200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-5100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-4800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-3000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-2900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-2000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-1900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-1700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-1800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E17" s="3">
         <v>15500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>43400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>27600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E18" s="3">
         <v>141600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>142600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>140400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>133000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>126100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>126800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>110200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>83200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>99800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>80200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>79500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>78300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-55300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-57700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-65000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-56900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-47600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-39700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-51100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-46900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-43900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-55700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-36400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-32700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-21900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-23700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-24700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-22400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>93100</v>
       </c>
       <c r="E21" s="3">
+        <v>93100</v>
+      </c>
+      <c r="F21" s="3">
         <v>90600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>81600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>81900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>84400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>82000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>74900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>64200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>61900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>59200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>52300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>79900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>58500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>56600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>57700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E23" s="3">
         <v>86300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>84900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>75300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>76000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>78500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>75800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>67900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>54500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>49300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>56500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>54900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E24" s="3">
         <v>25500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>15900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E26" s="3">
         <v>60800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>54300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>54800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>45300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>38800</v>
       </c>
       <c r="P26" s="3">
         <v>38800</v>
       </c>
       <c r="Q26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="R26" s="3">
         <v>36800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E27" s="3">
         <v>60800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>60200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>54300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>54700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>52900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,8 +2089,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2046,26 +2107,29 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-8000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E32" s="3">
         <v>55300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>57700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>65000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>56900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>47600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>39700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>51100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>46900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>43900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>55700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>36400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>32700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>21900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>23700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>24700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>22400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E33" s="3">
         <v>60800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>60200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>54300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>54700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E35" s="3">
         <v>60800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>60200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>54300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>54700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1249300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1118400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1269400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1037800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1443000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1443200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1122200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1950500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>854200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1026200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>702300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>857300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>763200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>256400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>533900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>622800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1490700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>618000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>624200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>628200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>295400</v>
+      </c>
+      <c r="E42" s="3">
         <v>555800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>479600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>641100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>564400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>338500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>284500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>243100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>78600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>190100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>309200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>165100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>146900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>69800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>67300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>63300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>71000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>86900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3052,115 +3160,121 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>30600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>33200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>28500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E49" s="3">
         <v>182100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>183400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>133900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>134800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>135000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>134900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>136100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>137900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>141800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>143800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>144700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>146400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>91000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>78400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>78500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3327,35 +3447,38 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>18100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>19700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>33900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>34300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16081000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15547900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14906800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14265600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14827900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14393300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13382200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13851900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12159900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12269300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11770900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11220200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10875600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9810100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9791500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9539500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9982300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8916000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8581600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8501700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>780400</v>
+      </c>
+      <c r="E57" s="3">
         <v>758900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>747800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>745000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>681600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>679500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>577300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>550100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>484800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>468300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>476000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>338200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>321100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>78100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>79100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>82100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>74400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>71700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>53500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,49 +3934,52 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>381700</v>
+      </c>
+      <c r="E61" s="3">
         <v>260400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>255900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>221400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>365800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>418500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>453800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>235800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>76300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>62200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>133700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>168900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>214500</v>
-      </c>
-      <c r="P61" s="3">
-        <v>54600</v>
       </c>
       <c r="Q61" s="3">
         <v>54600</v>
@@ -3845,7 +3988,7 @@
         <v>54600</v>
       </c>
       <c r="S61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="T61" s="3">
         <v>54500</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14495400</v>
+      </c>
+      <c r="E66" s="3">
         <v>14024800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13448100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12864600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13482200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13105800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12145300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12621100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10975500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11108500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10654600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10147200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9836100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8815700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8791300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8579000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9060700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8042300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7714900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7667400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4360,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>5100</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1370500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1308700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1247900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1187700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1133500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1079800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1025200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1009300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>964100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>908100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>866900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>826200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>785600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>746900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>708100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>671300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>634300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>583100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>551600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>519200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1585600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1523200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1458600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1345700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1287500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1231900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1225800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1179400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1155700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1111200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1068000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1034400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>989300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>995200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>955500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>916600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>868600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>861600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>829200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E81" s="3">
         <v>60800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>60200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>54300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>54700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5900</v>
       </c>
       <c r="H83" s="3">
         <v>5900</v>
       </c>
       <c r="I83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J83" s="3">
         <v>6200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E89" s="3">
         <v>56700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-133400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>99900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>218100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>66300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>93300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>107200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>77800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>49300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>51400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>53100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>52500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-587100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-733700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-398900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>259300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-110800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-699200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-316100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-360800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-208500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-375800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-403400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-267900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-325700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-343500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-422300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-166900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-345800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-91200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-222400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>576100</v>
+      </c>
+      <c r="E100" s="3">
         <v>526000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>764000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-764300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>82200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>802100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-578500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1395000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-56800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>592400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>226900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>284100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>490400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>211100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-495400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>988300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>317900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>26700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-235900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-151100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>231700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-405200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>321000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-828400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1096300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-172000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>323900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-155000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>94000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>506800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-277400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-88900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-868200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>873000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-435200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,186 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>184200</v>
+      </c>
+      <c r="F8" s="3">
         <v>160200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>157100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>158300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>156900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>155700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>155400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>149900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>144100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>185100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>147300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>146300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>141600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>169200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>131200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>122800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>118900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>144900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>107800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>103500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>98500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,67 +1250,73 @@
         <v>-6100</v>
       </c>
       <c r="E15" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G15" s="3">
         <v>-6800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>-5700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>-6200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>-5900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>-5900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-7000</v>
       </c>
       <c r="L15" s="3">
         <v>-6200</v>
       </c>
       <c r="M15" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="O15" s="3">
         <v>-6000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-5200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-5100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-3600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-3000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-2900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-2000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-1900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-1700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-1800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F17" s="3">
         <v>15100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>16500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>22700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>29300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>25100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>58300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>43400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>45700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>44000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>59000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>43500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>37100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>35800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>45100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>27600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>24000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>20200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>159400</v>
+      </c>
+      <c r="F18" s="3">
         <v>145100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>141600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>142600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>140400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>133000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>126100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>115500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>119000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>126800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>103900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>100600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>97600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>110200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>87700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>85700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>83200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>99800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>80200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>79500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>78300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1514,158 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-58100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-55300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-57700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-65000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-56900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-47600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-39700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-51100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-46900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-45800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-43900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-42300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-55700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-36400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-32700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-21900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-23700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-24700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-22400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>87700</v>
+      </c>
+      <c r="F21" s="3">
         <v>93100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>93100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>90600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>81600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>81900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>84400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>82000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>74900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>86100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>64200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>61900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>60400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>59200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>57300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>52300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>53300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>79900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>58500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>56600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>57700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1732,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>81700</v>
+      </c>
+      <c r="F23" s="3">
         <v>87000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>86300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>84900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>75300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>76000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>78500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>75800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>67900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>79900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>58200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>56700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>55300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>54500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>53700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>49300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>50500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>77900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>56500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>54900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>55900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F24" s="3">
         <v>25200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>25500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>24700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>21100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>22400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>23700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>22600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>23800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>16900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>15900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>15600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>12500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>12200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>26600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>16800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>22500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>23300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F26" s="3">
         <v>61800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>60800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>60200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>54300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>53600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>54800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>53000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>45300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>56100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>41300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>40800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>40600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>38800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>38800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>36800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>38300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>51300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>39700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>32400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>32500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F27" s="3">
         <v>61800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>60800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>60200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>54300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>53600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>54700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>52900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>45200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>56000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>41200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>40700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>40600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>38700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>38800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>36800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>38200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>51200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>39600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>32300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>32500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,11 +2214,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2110,26 +2232,32 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1200</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-8000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F32" s="3">
         <v>58100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>55300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>57700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>65000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>56900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>47600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>39700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>51100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>46900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>45800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>43900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>42300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>55700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>36400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>32700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>21900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>23700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>24700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>22400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F33" s="3">
         <v>61800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>60800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>60200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>54300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>53600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>54700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>52900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>45200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>56000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>41200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>40700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>40600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>38700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>38800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>36800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>37000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>51200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>31600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>32300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>32500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F35" s="3">
         <v>61800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>60800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>60200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>54300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>53600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>54700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>52900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>45200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>56000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>41200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>40700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>40600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>38700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>38800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>36800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>37000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>51200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>31600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>32300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>32500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2833,158 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1698000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1574700</v>
+      </c>
+      <c r="F41" s="3">
         <v>1249300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1118400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1269400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1037800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1443000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1443200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1122200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1950500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>854200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1026200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>702300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>857300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>763200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>256400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>533900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>622800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1490700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>618000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>624200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>628200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>361100</v>
+      </c>
+      <c r="F42" s="3">
         <v>295400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>555800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>479600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>641100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>564400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>338500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>284500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>243100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>78600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>190100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>309200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>165100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>146900</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>17400</v>
-      </c>
-      <c r="R42" s="3">
-        <v>69800</v>
       </c>
       <c r="S42" s="3">
         <v>17400</v>
       </c>
       <c r="T42" s="3">
+        <v>69800</v>
+      </c>
+      <c r="U42" s="3">
+        <v>17400</v>
+      </c>
+      <c r="V42" s="3">
         <v>67300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>63300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>71000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>86900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3347,162 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>30600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>33200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>28500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>22300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>21500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>19300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>18700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>17800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>16700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>186800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>181600</v>
+      </c>
+      <c r="F49" s="3">
         <v>182700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>182100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>183400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>133900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>134800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>135000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>134900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>136100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>137900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>141800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>143800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>144700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>146400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>91000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>78400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>78500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>10200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3450,35 +3690,41 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>18100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>17900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>18000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>27100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>19700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>33900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>34300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18407100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17401200</v>
+      </c>
+      <c r="F54" s="3">
         <v>16081000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15547900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14906800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14265600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14827900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14393300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13382200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13851900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12159900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12269300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11770900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11220200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10875600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9810100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9791500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9539500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9982300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8916000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8581600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8501700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3925,84 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>784300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>774600</v>
+      </c>
+      <c r="F57" s="3">
         <v>780400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>758900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>747800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>745000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>681600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>679500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>577300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>550100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>484800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>468300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>476000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>338200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>321100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>78100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>79100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>82100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>74400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>51600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>71700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>53500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +4069,14 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4143,14 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,64 +4217,70 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>425800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>445200</v>
+      </c>
+      <c r="F61" s="3">
         <v>381700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>260400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>255900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>221400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>365800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>418500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>453800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>235800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>76300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>62200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>133700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>168900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>214500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>54600</v>
-      </c>
-      <c r="R61" s="3">
-        <v>54600</v>
       </c>
       <c r="S61" s="3">
         <v>54600</v>
       </c>
       <c r="T61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="U61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="V61" s="3">
         <v>54500</v>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>54500</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16706100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15758200</v>
+      </c>
+      <c r="F66" s="3">
         <v>14495400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14024800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13448100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12864600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13482200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13105800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12145300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12621100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10975500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11108500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10654600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10147200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9836100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8815700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8791300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8579000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9060700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8042300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7714900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7667400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4531,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>5100</v>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1486900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1428400</v>
+      </c>
+      <c r="F72" s="3">
         <v>1370500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1308700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1247900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1187700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1133500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1079800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1025200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1009300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>964100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>908100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>866900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>826200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>785600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>746900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>708100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>671300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>634300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>583100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>551600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>519200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1701000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1585600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1523200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1458600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1400900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1345700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1287500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1231900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1225800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1179400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1155700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1111200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1068000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1034400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>989300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>995200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>955500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>916600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>868600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>861600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>829200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F81" s="3">
         <v>61800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>60800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>60200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>54300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>53600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>54700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>52900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>45200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>56000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>41200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>40700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>40600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>38700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>38800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>36800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>37000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>51200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>31600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>32300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>32500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>6800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7000</v>
       </c>
       <c r="L83" s="3">
         <v>6200</v>
       </c>
       <c r="M83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O83" s="3">
         <v>6000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>5200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>3600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>3000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>1700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>145100</v>
+      </c>
+      <c r="F89" s="3">
         <v>142000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>56700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-133400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>99900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>28300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>218100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>66300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>62200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>93300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>107200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>21400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>77800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>11100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>72000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>43500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>49300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>51400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>14000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>53100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>52500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1150300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1056900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-587100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-733700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-398900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>259300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-110800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-699200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-316100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-360800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-208500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-375800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-403400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-267900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-325700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-343500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-422300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-166900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-345800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-91200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-222400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6776,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1202800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1237200</v>
+      </c>
+      <c r="F100" s="3">
         <v>576100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>526000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>764000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-764300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>82200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>802100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-578500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1395000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-56800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>592400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>226900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>284100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>490400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-23800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>211100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-495400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>988300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>317900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>26700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-235900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>325400</v>
+      </c>
+      <c r="F102" s="3">
         <v>131000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-151100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>231700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-405200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>321000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-828400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1096300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-172000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>323900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-155000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>94000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>506800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-277400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-88900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-868200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>873000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-11600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-435200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,192 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>279600</v>
+      </c>
+      <c r="E8" s="3">
         <v>223800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>184200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>158300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>156900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>155700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>155400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>144100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>185100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>147300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>146300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>141600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>169200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>131200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>122800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>118900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>144900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>107800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>103500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>98500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E15" s="3">
         <v>-6100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-6000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-6100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-6800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-5700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-6200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-5900</v>
       </c>
       <c r="K15" s="3">
         <v>-5900</v>
       </c>
       <c r="L15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="M15" s="3">
         <v>-6200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-7000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-6200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-6000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-5100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-4800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-3600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-3000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-2900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-2000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-1900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E17" s="3">
         <v>52100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>59000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>43500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>37100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>35800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>45100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>27600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>24000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>196400</v>
+      </c>
+      <c r="E18" s="3">
         <v>171700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>159400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>145100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>141600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>142600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>140400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>133000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>126100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>115500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>126800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>110200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>87700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>85700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>83200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>99800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>80200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>79500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>78300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-88900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-77700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-58100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-55300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-57700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-65000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-56900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-47600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-39700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-46900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-45800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-55700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-36400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-32700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-21900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-23700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-24700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E21" s="3">
         <v>89600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>87700</v>
       </c>
-      <c r="F21" s="3">
-        <v>93100</v>
-      </c>
       <c r="G21" s="3">
-        <v>93100</v>
+        <v>91300</v>
       </c>
       <c r="H21" s="3">
+        <v>94900</v>
+      </c>
+      <c r="I21" s="3">
         <v>90600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>81600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>81900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>82000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>74900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>86100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>64200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>61900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>60400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>59200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>57300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>52300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>53300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>79900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>58500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>56600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>57700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E23" s="3">
         <v>82800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>81700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>87000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>86300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>84900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>75300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>67900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>79900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>54500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>53700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>77900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>56500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>54900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>55900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E24" s="3">
         <v>24400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>26600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>22500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E26" s="3">
         <v>58400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>61800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>54300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>54800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>38800</v>
       </c>
       <c r="S26" s="3">
         <v>38800</v>
       </c>
       <c r="T26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="U26" s="3">
         <v>36800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>39700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>32400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>32500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E27" s="3">
         <v>58400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>61800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>60800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>54300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>36800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>39600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>32300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,8 +2280,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2238,26 +2298,29 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1200</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-8000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E32" s="3">
         <v>88900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>77700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>58100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>55300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>57700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>65000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>56900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>47600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>46900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>45800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>43900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>55700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>36400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>32700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>21900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>23700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>24700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>22400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E33" s="3">
         <v>58400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>61800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>54300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>52900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>36800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>37000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>31600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>32300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E35" s="3">
         <v>58400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>61800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>54300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>52900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>36800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>37000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>31600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>32300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1952500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1698000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1574700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1249300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1118400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1269400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1037800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1443000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1443200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1122200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1950500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>854200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1026200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>702300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>857300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>763200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>256400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>533900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>622800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1490700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>618000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>624200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>628200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E42" s="3">
         <v>108600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>361100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>295400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>555800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>479600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>641100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>564400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>338500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>284500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>243100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>78600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>190100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>309200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>165100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>146900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>69800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>67300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>63300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>71000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>86900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3379,130 +3486,136 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>30600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>33200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>28500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E49" s="3">
         <v>186800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>181600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>182700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>182100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>183400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>133900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>134800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>135000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>134900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>136100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>137900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>141800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>143800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>144700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>146400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>91000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>78400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>78500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3696,35 +3815,38 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>18100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>27100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>19700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>33900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>34300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18741000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18407100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17401200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16081000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15547900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14906800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14265600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14827900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14393300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13382200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13851900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12159900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12269300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11770900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11220200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10875600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9810100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9791500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9539500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9982300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8916000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8581600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8501700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>672900</v>
+      </c>
+      <c r="E57" s="3">
         <v>784300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>774600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>780400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>758900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>747800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>745000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>681600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>679500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>577300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>550100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>484800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>468300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>476000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>338200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>321100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>78100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>79100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>82100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>74400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>51600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>71700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>53500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4149,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,58 +4362,61 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>334100</v>
+      </c>
+      <c r="E61" s="3">
         <v>425800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>445200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>381700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>260400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>255900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>221400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>365800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>418500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>453800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>235800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>76300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>62200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>133700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>168900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>214500</v>
-      </c>
-      <c r="S61" s="3">
-        <v>54600</v>
       </c>
       <c r="T61" s="3">
         <v>54600</v>
@@ -4283,7 +4425,7 @@
         <v>54600</v>
       </c>
       <c r="V61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="W61" s="3">
         <v>54500</v>
@@ -4297,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16953500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16706100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15758200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14495400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14024800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13448100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12864600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13482200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13105800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12145300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12621100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10975500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11108500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10654600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10147200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9836100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8815700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8791300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8579000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9060700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8042300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7714900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7667400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4873,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>5100</v>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1568400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1486900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1428400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1370500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1308700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1247900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1187700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1133500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1079800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1025200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1009300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>964100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>908100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>866900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>826200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>785600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>746900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>708100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>671300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>634300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>583100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>551600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>519200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1787600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1701000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1643000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1585600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1523200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1458600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1345700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1287500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1231900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1225800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1179400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1155700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1111200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1068000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1034400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>989300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>995200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>955500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>916600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>868600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>861600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>829200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E81" s="3">
         <v>58400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>61800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>54300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>52900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>36800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>37000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>31600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>32300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E83" s="3">
         <v>6800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6000</v>
       </c>
-      <c r="F83" s="3">
-        <v>6100</v>
-      </c>
       <c r="G83" s="3">
-        <v>6800</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I83" s="3">
         <v>5700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>5900</v>
       </c>
       <c r="K83" s="3">
         <v>5900</v>
       </c>
       <c r="L83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M83" s="3">
         <v>6200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E89" s="3">
         <v>70800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>145100</v>
       </c>
-      <c r="F89" s="3">
-        <v>142000</v>
-      </c>
       <c r="G89" s="3">
-        <v>56700</v>
+        <v>137700</v>
       </c>
       <c r="H89" s="3">
+        <v>60900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-133400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>99900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>218100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>66300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>93300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>107200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>77800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>49300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>51400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>53100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>52500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-261100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1150300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1056900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-587100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-733700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-398900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>259300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-110800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-699200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-316100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-360800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-208500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-375800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-403400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-267900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-325700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-343500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-422300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-166900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-345800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-91200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-222400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>409300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1202800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1237200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>576100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>526000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>764000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-764300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>82200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>802100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-578500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1395000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-56800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>592400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>226900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>284100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>490400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-23800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>211100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-495400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>988300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>317900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>26700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-235900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>254500</v>
+      </c>
+      <c r="E102" s="3">
         <v>123300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>325400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>131000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-151100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>231700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-405200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>321000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-828400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1096300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-172000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>323900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-155000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>94000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>506800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-277400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-88900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-868200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>873000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-435200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>307300</v>
+      </c>
+      <c r="E8" s="3">
         <v>279600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>223800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>184200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>160200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>158300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>156900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>155700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>155400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>149900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>185100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>147300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>146300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>141600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>169200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>131200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>122800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>118900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>144900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>107800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>103500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>98500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,85 +1283,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E15" s="3">
         <v>-6000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-6100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-6000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-6100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-6800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-5700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-6200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-5900</v>
       </c>
       <c r="L15" s="3">
         <v>-5900</v>
       </c>
       <c r="M15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="N15" s="3">
         <v>-6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-7000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-6200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-5200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-5100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-4800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-3600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-3000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-2900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-2000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E17" s="3">
         <v>83200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>45700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>59000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>43500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>37100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>35800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>45100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>27600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>24000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>20200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E18" s="3">
         <v>196400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>171700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>159400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>145100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>141600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>142600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>140400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>126100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>115500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>119000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>126800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>97600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>110200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>87700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>85700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>83200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>99800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>80200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>79500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>78300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-79200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-88900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-77700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-58100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-55300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-57700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-65000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-56900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-47600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-46900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-43900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-55700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-36400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-32700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-21900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-23700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-24700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E21" s="3">
         <v>123000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>89600</v>
       </c>
-      <c r="F21" s="3">
-        <v>87700</v>
-      </c>
       <c r="G21" s="3">
-        <v>91300</v>
+        <v>84600</v>
       </c>
       <c r="H21" s="3">
+        <v>94400</v>
+      </c>
+      <c r="I21" s="3">
         <v>94900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>81600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>84400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>82000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>74900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>86100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>64200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>61900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>60400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>59200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>57300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>52300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>53300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>79900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>58500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>56600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>57700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E23" s="3">
         <v>117200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>82800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>81700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>87000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>86300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>84900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>75300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>79900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>56700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>54500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>53700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>56500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>54900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>55900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E24" s="3">
         <v>35700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>26600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>16800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>22500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E26" s="3">
         <v>81600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>58400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>61800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>54300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>38800</v>
       </c>
       <c r="T26" s="3">
         <v>38800</v>
       </c>
       <c r="U26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="V26" s="3">
         <v>36800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>51300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>39700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>32400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>32500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E27" s="3">
         <v>81600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>58400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>57900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>61800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>54300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>53600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>54700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>52900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>56000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>36800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>32500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,8 +2344,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2301,26 +2362,29 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1200</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E32" s="3">
         <v>79200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>88900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>77700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>58100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>55300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>57700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>65000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>56900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>47600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>46900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>45800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>43900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>55700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>36400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>32700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>21900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>23700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>24700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>22400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E33" s="3">
         <v>81600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>58400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>61800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>54300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>53600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>54700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>52900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>56000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>36800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>37000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>51200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>31600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>32500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E35" s="3">
         <v>81600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>58400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>61800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>54300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>53600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>54700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>52900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>56000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>36800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>37000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>51200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>31600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>32500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3007,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2504200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1952500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1698000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1574700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1249300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1118400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1269400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1037800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1443000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1443200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1122200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1950500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>854200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1026200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>702300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>857300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>763200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>256400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>533900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>622800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1490700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>618000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>624200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>628200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E42" s="3">
         <v>80100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>108600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>361100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>295400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>555800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>479600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>641100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>564400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>338500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>284500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>243100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>78600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>190100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>309200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>165100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>146900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>17400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>69800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>67300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>63300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>71000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>86900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3489,133 +3597,139 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>30600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>33200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>28500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>16700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E49" s="3">
         <v>183100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>186800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>181600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>182700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>182100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>183400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>133900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>134800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>135000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>134900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>136100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>137900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>141800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>143800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>144700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>146400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>91000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>78400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>78500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3818,35 +3938,38 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>18100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>27100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>19700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>33900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>34300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19782500</v>
+      </c>
+      <c r="E54" s="3">
         <v>18741000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18407100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17401200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16081000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15547900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14906800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14265600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14827900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14393300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13382200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13851900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12159900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12269300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11770900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11220200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10875600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9810100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9791500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9539500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9982300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8916000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8581600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8501700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>660600</v>
+      </c>
+      <c r="E57" s="3">
         <v>672900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>784300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>774600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>780400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>758900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>747800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>745000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>681600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>679500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>577300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>550100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>484800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>468300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>476000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>338200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>321100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>78100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>79100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>82100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>74400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>51600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>71700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>53500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,61 +4505,64 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E61" s="3">
         <v>334100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>425800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>445200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>381700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>260400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>255900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>221400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>365800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>418500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>453800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>235800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>76300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>62200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>133700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>168900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>214500</v>
-      </c>
-      <c r="T61" s="3">
-        <v>54600</v>
       </c>
       <c r="U61" s="3">
         <v>54600</v>
@@ -4428,7 +4571,7 @@
         <v>54600</v>
       </c>
       <c r="W61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="X61" s="3">
         <v>54500</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17938400</v>
+      </c>
+      <c r="E66" s="3">
         <v>16953500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16706100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15758200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14495400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14024800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13448100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12864600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13482200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13105800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12145300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12621100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10975500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11108500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10654600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10147200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9836100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8815700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8791300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8579000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9060700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8042300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7714900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7667400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5043,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>5100</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1648300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1568400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1486900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1428400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1370500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1308700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1247900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1187700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1133500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1079800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1025200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1009300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>964100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>908100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>866900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>826200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>785600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>746900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>708100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>671300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>634300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>583100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>551600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>519200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1844100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1787600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1701000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1643000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1585600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1523200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1458600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1345700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1287500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1231900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1225800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1179400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1155700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1111200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1068000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1034400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>989300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>995200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>955500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>916600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>868600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>861600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>829200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E81" s="3">
         <v>81600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>58400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>61800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>54300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>53600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>54700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>52900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>56000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>36800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>37000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>51200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>31600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>32500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6800</v>
       </c>
-      <c r="F83" s="3">
-        <v>6000</v>
-      </c>
       <c r="G83" s="3">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="H83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>5900</v>
       </c>
       <c r="L83" s="3">
         <v>5900</v>
       </c>
       <c r="M83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N83" s="3">
         <v>6200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E89" s="3">
         <v>106300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>70800</v>
       </c>
-      <c r="F89" s="3">
-        <v>145100</v>
-      </c>
       <c r="G89" s="3">
-        <v>137700</v>
+        <v>140800</v>
       </c>
       <c r="H89" s="3">
+        <v>142000</v>
+      </c>
+      <c r="I89" s="3">
         <v>60900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-133400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>99900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>218100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>62200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>93300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>107200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>43500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>49300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>51400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>53100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>52500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-396600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-261100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1150300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1056900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-587100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-733700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-398900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>259300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-110800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-699200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-316100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-360800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-208500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-375800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-403400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-267900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-325700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-343500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-422300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-166900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-345800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-91200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-222400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1006100</v>
+      </c>
+      <c r="E100" s="3">
         <v>409300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1202800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1237200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>576100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>526000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>764000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-764300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>82200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>802100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-578500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1395000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>592400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>226900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>284100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>490400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-23800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>211100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-495400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>988300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>317900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>26700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-235900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>551700</v>
+      </c>
+      <c r="E102" s="3">
         <v>254500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>123300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>325400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>131000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-151100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>231700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-405200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>321000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-828400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1096300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-172000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>323900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-155000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>94000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>506800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-277400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-88900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-868200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>873000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-11600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-435200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>346400</v>
+      </c>
+      <c r="E8" s="3">
         <v>307300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>279600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>223800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>184200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>160200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>157100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>158300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>156900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>155700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>155400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>149900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>144100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>185100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>147300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>146300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>141600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>169200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>131200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>122800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>118900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>144900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>107800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>103500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>98500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,79 +1318,82 @@
         <v>-5700</v>
       </c>
       <c r="E15" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F15" s="3">
         <v>-6000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-6100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-6000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-6100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-6800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-5700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-6200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-5900</v>
       </c>
       <c r="M15" s="3">
         <v>-5900</v>
       </c>
       <c r="N15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="O15" s="3">
         <v>-6200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-7000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-6000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-5200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-5100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-4800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-3600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-3000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-2900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E17" s="3">
         <v>113900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>83200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>43400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>59000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>43500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>37100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>35800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>45100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>27600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>24000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>20200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E18" s="3">
         <v>193400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>196400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>171700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>159400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>145100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>141600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>142600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>140400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>133000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>126100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>115500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>119000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>126800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>103900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>97600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>110200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>87700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>85700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>83200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>99800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>80200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>79500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>78300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1616,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-78800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-79200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-88900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-77700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-58100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-55300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-57700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-65000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-56900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-47600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-51100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-45800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-43900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-42300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-55700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-36400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-32700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-23700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-24700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-22400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E21" s="3">
         <v>119200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>123000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>89600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>84600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>94400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>94900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>90600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>84400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>82000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>74900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>86100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>64200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>61900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>60400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>59200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>57300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>52300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>53300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>79900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>58500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>56600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>57700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E23" s="3">
         <v>114700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>117200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>82800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>81700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>87000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>86300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>84900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>75300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>67900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>79900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>54500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>53700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>49300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>50500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>56500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>54900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>55900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E24" s="3">
         <v>34800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>26600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>16800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>22500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E26" s="3">
         <v>79900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>81600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>58400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>61800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>54300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>54800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>38800</v>
       </c>
       <c r="U26" s="3">
         <v>38800</v>
       </c>
       <c r="V26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="W26" s="3">
         <v>36800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>51300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>39700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>32400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>32500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E27" s="3">
         <v>79900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>81600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>58400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>57900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>61800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>52900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>56000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>36800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>51200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>39600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>32300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>32500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,8 +2408,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2365,26 +2426,29 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1200</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E32" s="3">
         <v>78800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>79200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>88900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>77700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>58100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>55300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>57700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>65000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>56900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>47600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>51100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>46900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>45800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>43900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>42300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>55700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>36400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>32700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>21900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>23700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>24700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>22400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E33" s="3">
         <v>79900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>81600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>58400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>61800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>52900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>36800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>37000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>51200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>31600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>32300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>32500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E35" s="3">
         <v>79900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>81600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>58400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>61800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>52900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>36800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>37000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>51200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>31600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>32300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>32500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3094,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2382100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2504200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1952500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1698000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1574700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1249300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1118400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1269400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1037800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1443000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1443200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1122200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1950500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>854200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1026200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>702300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>857300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>763200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>256400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>533900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>622800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1490700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>618000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>624200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>628200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>156600</v>
+      </c>
+      <c r="E42" s="3">
         <v>108600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>80100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>108600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>361100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>295400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>555800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>479600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>641100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>564400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>338500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>284500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>243100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>78600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>190100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>309200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>165100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>146900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>69800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>17400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>67300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>63300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>71000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>86900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3600,136 +3708,142 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>30600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>33200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>28500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>21500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>16700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E49" s="3">
         <v>180300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>183100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>186800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>181600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>182700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>182100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>183400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>133900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>134800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>135000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>134900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>136100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>137900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>141800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>143800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>144700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>146400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>91000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>78400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>78500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3941,35 +4061,38 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>18100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>27100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>19700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>33900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>34300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20348500</v>
+      </c>
+      <c r="E54" s="3">
         <v>19782500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18741000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18407100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17401200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16081000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15547900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14906800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14265600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14827900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14393300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13382200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13851900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12159900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12269300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11770900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11220200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10875600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9810100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9791500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9539500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9982300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8916000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8581600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8501700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>696600</v>
+      </c>
+      <c r="E57" s="3">
         <v>660600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>672900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>784300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>774600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>780400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>758900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>747800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>745000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>681600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>679500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>577300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>550100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>484800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>468300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>476000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>338200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>321100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>78100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>79100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>82100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>74400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>51600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>71700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>53500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,64 +4648,67 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E61" s="3">
         <v>334300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>334100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>425800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>445200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>381700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>260400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>255900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>221400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>365800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>418500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>453800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>235800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>76300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>62200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>133700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>168900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>214500</v>
-      </c>
-      <c r="U61" s="3">
-        <v>54600</v>
       </c>
       <c r="V61" s="3">
         <v>54600</v>
@@ -4574,7 +4717,7 @@
         <v>54600</v>
       </c>
       <c r="X61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="Y61" s="3">
         <v>54500</v>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18431300</v>
+      </c>
+      <c r="E66" s="3">
         <v>17938400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16953500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16706100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15758200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14495400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14024800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13448100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12864600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13482200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13105800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12145300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12621100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10975500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11108500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10654600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10147200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9836100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8815700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8791300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8579000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9060700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8042300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7714900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7667400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5214,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>5100</v>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1735600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1648300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1568400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1486900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1428400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1370500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1308700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1247900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1187700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1133500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1079800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1025200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1009300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>964100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>908100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>866900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>826200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>785600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>746900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>708100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>671300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>634300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>583100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>551600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>519200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1917200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1844100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1787600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1701000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1643000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1585600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1523200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1458600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1345700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1287500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1231900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1225800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1179400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1155700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1111200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1068000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1034400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>989300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>995200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>955500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>916600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>868600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>861600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>829200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E81" s="3">
         <v>79900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>81600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>58400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>61800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>52900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>36800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>37000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>51200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>31600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>32300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>32500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>4500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>5900</v>
       </c>
       <c r="M83" s="3">
         <v>5900</v>
       </c>
       <c r="N83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O83" s="3">
         <v>6200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-57800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>70800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>140800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>142000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>60900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-133400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>99900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>218100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>93300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>107200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>77800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>72000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>43500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>49300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>51400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>53100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>52500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-582400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-396600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-261100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1150300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1056900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-587100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-733700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-398900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>259300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-110800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-699200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-316100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-360800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-208500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-375800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-403400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-267900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-325700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-343500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-422300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-166900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-345800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-91200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-222400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>391500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1006100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>409300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1202800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1237200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>576100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>526000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>764000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-764300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>82200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>802100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-578500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1395000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>592400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>226900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>284100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>490400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-23800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>211100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-495400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>988300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>317900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>26700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-235900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="E102" s="3">
         <v>551700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>254500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>123300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>325400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>131000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-151100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>231700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-405200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>321000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-828400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1096300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-172000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>323900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-155000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>94000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>506800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-277400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-88900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-868200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>873000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-11600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-435200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>371200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>AX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E8" s="3">
         <v>346400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>307300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>279600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>223800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>184200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>160200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>157100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>158300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>156900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>155700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>155400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>149900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>144100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>185100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>147300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>146300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>141600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>169200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>131200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>122800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>118900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>144900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>107800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>103500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>98500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,91 +1329,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="E15" s="3">
         <v>-5700</v>
       </c>
       <c r="F15" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G15" s="3">
         <v>-6000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-6100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-6000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-6100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-6800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-5700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-6200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-5900</v>
       </c>
       <c r="N15" s="3">
         <v>-5900</v>
       </c>
       <c r="O15" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="P15" s="3">
         <v>-6200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-6200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-6000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-5200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-5100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-4800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-3600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-3000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>159800</v>
+      </c>
+      <c r="E17" s="3">
         <v>149700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>113900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>83200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>25100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>58300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>59000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>43500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>37100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>35800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>45100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>27600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>24000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>20200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>23300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E18" s="3">
         <v>196700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>193400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>196400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>171700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>159400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>145100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>141600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>142600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>140400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>133000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>126100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>115500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>119000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>126800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>97600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>110200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>87700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>85700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>83200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>99800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>80200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>79500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>78300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1650,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-79700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-78800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-79200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-88900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-77700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-58100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-55300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-57700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-65000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-56900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-47600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-39700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-46900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-45800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-43900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-42300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-55700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-36400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-32700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-21900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-23700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-24700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-22400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-12300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>123300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>119200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>123000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>89600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>84600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>94400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>94900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>90600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>82000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>74900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>86100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>64200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>61900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>60400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>59200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>57300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>52300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>53300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>79900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>58500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>56600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>57700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>73000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E23" s="3">
         <v>117000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>114700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>117200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>82800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>81700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>87000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>86300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>75300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>67900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>79900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>58200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>54500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>53700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>49300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>50500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>77900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>56500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>54900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>55900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>71400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E24" s="3">
         <v>29600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>26600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>22500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>23300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E26" s="3">
         <v>87400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>79900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>81600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>58400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>57900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>61800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>54800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>38800</v>
       </c>
       <c r="V26" s="3">
         <v>38800</v>
       </c>
       <c r="W26" s="3">
+        <v>38800</v>
+      </c>
+      <c r="X26" s="3">
         <v>36800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>51300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>39700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>32400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>32500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E27" s="3">
         <v>87400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>79900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>81600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>58400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>57900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>61800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>54300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>56000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>36800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>51200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>39600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>32300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>32500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2411,8 +2472,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2429,26 +2490,29 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E32" s="3">
         <v>79700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>78800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>79200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>88900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>77700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>58100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>55300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>57700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>65000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>56900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>47600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>39700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>51100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>46900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>45800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>43900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>42300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>55700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>36400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>32700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>21900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>23700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>24700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>22400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>12300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E33" s="3">
         <v>87400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>79900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>81600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>58400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>57900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>61800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>54300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>52900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>36800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>37000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>51200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>31600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>32300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>32500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E35" s="3">
         <v>87400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>79900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>81600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>58400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>57900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>61800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>54300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>52900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>36800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>37000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>51200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>31600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>32300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>32500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3181,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2413800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2382100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2504200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1952500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1698000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1574700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1249300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1118400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1269400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1037800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1443000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1443200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1122200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1950500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>854200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1026200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>702300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>857300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>763200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>256400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>533900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>622800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1490700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>618000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>624200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>628200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1054700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E42" s="3">
         <v>156600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>108600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>80100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>108600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>361100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>295400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>555800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>479600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>641100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>564400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>338500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>284500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>243100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>78600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>190100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>309200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>165100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>146900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>69800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>17400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>67300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>63300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>71000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>86900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>88400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3711,139 +3819,145 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>30600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>33200</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>28500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>21500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E49" s="3">
         <v>177600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>180300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>183100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>186800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>181600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>182700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>182100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>183400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>133900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>134800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>135000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>134900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>136100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>137900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>141800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>143800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>144700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>146400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>91000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>78400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>78500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4064,35 +4184,38 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>18100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>27100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>19700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>33900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>34300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20825200</v>
+      </c>
+      <c r="E54" s="3">
         <v>20348500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19782500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18741000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18407100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17401200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16081000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15547900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14906800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14265600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14827900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14393300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13382200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13851900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12159900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12269300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11770900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11220200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10875600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9810100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9791500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9539500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9982300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8916000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8581600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8501700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8700000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>629100</v>
+      </c>
+      <c r="E57" s="3">
         <v>696600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>660600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>672900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>784300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>774600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>780400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>758900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>747800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>745000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>681600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>679500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>577300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>550100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>484800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>468300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>476000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>338200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>321100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>78100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>79100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>82100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>74400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>51600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>71700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>53500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,67 +4791,70 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>447700</v>
+      </c>
+      <c r="E61" s="3">
         <v>361800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>334300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>334100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>425800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>445200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>381700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>260400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>255900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>221400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>365800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>418500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>453800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>235800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>76300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>62200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>133700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>168900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>214500</v>
-      </c>
-      <c r="V61" s="3">
-        <v>54600</v>
       </c>
       <c r="W61" s="3">
         <v>54600</v>
@@ -4720,7 +4863,7 @@
         <v>54600</v>
       </c>
       <c r="Y61" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="Z61" s="3">
         <v>54500</v>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>54500</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18849000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18431300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17938400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16953500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16706100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15758200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14495400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14024800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13448100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12864600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13482200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13105800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12145300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12621100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10975500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11108500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10654600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10147200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9836100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8815700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8791300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8579000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9060700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8042300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7714900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7667400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7899700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5385,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>5100</v>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>5100</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1818300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1735600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1648300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1568400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1486900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1428400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1370500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1308700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1247900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1187700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1133500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1079800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1025200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1009300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>964100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>908100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>866900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>826200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>785600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>746900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>708100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>671300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>634300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>583100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>551600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>519200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1976200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1917200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1844100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1787600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1701000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1643000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1585600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1523200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1458600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1400900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1345700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1287500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1231900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1225800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1179400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1155700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1111200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1068000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1034400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>989300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>995200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>955500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>916600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>868600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>861600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>829200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>795200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E81" s="3">
         <v>87400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>79900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>81600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>58400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>57900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>61800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>54300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>52900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>36800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>37000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>51200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>31600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>32300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>32500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>40900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>5900</v>
       </c>
       <c r="N83" s="3">
         <v>5900</v>
       </c>
       <c r="O83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P83" s="3">
         <v>6200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E89" s="3">
         <v>68700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-57800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>70800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>142000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>60900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-133400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>99900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>218100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>66300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>93300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>107200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>77800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>72000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>43500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>49300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>51400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>53100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>52500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>85900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-506000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-582400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-396600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-261100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1150300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1056900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-587100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-733700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-398900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>259300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-110800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-699200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-316100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-360800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-208500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-375800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-403400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-267900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-325700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-343500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-422300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-166900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-345800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-91200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-222400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-199500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>503800</v>
+      </c>
+      <c r="E100" s="3">
         <v>391500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1006100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>409300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1202800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1237200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>576100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>526000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>764000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-764300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>802100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-578500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1395000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>592400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>226900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>284100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>490400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>211100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-495400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>988300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>317900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>26700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-235900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>484900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-122100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>551700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>254500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>123300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>325400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>131000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-151100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>231700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-405200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>321000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-828400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1096300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-172000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>323900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-155000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>94000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>506800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-277400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-88900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-868200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>873000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-11600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-435200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>371200</v>
       </c>
     </row>
